--- a/models_tree.xlsx
+++ b/models_tree.xlsx
@@ -40,19 +40,19 @@
     <t>Tree_MM</t>
   </si>
   <si>
+    <t>tree_RS</t>
+  </si>
+  <si>
+    <t>tree_PT</t>
+  </si>
+  <si>
     <t>Tree_SC</t>
   </si>
   <si>
-    <t>tree_PT</t>
+    <t>tree_PL</t>
   </si>
   <si>
     <t>tree_MA</t>
-  </si>
-  <si>
-    <t>tree_PL</t>
-  </si>
-  <si>
-    <t>tree_RS</t>
   </si>
   <si>
     <t>tree_N</t>
@@ -447,13 +447,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C2">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D2">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -467,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C3">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="D3">
         <v>0.47</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,7 +499,7 @@
         <v>0.47</v>
       </c>
       <c r="E4">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -513,10 +513,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D5">
         <v>0.46</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C6">
         <v>0.43</v>
       </c>
       <c r="D6">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E6">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="C7">
         <v>0.47</v>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +582,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="C8">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="D8">
+        <v>0.44</v>
+      </c>
+      <c r="E8">
         <v>0.43</v>
       </c>
-      <c r="E8">
-        <v>0.42</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C9">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D9">
         <v>0.38</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
